--- a/test/test_data.xlsx
+++ b/test/test_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manasveesaraf/Documents/GitHub/LuminosityFunction/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3568F6B-B28F-8444-9748-B90770F432E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BA28B3-583D-594C-9CA5-AD7D0DDA62F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14320" xr2:uid="{BE09D884-506F-C446-A0D4-3783FC97BEED}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14300" xr2:uid="{BE09D884-506F-C446-A0D4-3783FC97BEED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BX$663</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test_data!$A$1:$BX$663</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2460,7 +2460,7 @@
   <dimension ref="A1:W663"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
